--- a/Book_from_chitay_gorod.xlsx
+++ b/Book_from_chitay_gorod.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="137">
   <si>
     <t>Name</t>
   </si>
@@ -28,397 +28,473 @@
     <t>book</t>
   </si>
   <si>
+    <t xml:space="preserve">    Воспоминания нэкоматы, кошки-оборотня: графический роман  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Один сон на двоих  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Туалетный мальчик Ханако. Том 6  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Единственный конец злодейки - смерть. Том 3  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Slayer. Титаны американского трэш-метала  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Манга. Нарисуй своего героя  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Аконит  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Пустая шкатулка и нулевая Мария. Книга 7: ранобэ  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Полюбить учителя главного героя  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Удержать 13-го  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Бунтарка и Хозяин Стужи  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Преследуя Аделин. Специальное издание  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Прах человеческий  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Варяжское море. Воин  </t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ведьма Агнета. Демон-помощник и заколдованная комната  </t>
   </si>
   <si>
-    <t xml:space="preserve">    Доска Дионисия. Антикварный детектив-житие в десяти клеймах  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    В этих гнилых стенах  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Сопливый ребенок и его спокойная мама. Первая помощь маленьким носикам, горлышкам и ушкам  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Преследуя Аделин  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Вечеринка смерти  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Кровь Ангелов  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Девочка со спичками  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Таинственный незнакомец  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Мрачный Взвод. Пробуждение Нави  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Нерушимый  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Правило номер 5  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Сквозь топь и туман  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Вернуть невесту. Ловушка для попаданки. Том 1  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Naruto. Наруто. Книга 13. Битва Сикамару  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Мемуары Ванитаса. Том 10  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mystica. Музы DADACHYO. Раскрашиваем 30+ иллюстраций загадочных красавиц  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Любовь. До и после: о тебе, о нем и о том, как любовь-сомнение превращается в любовь-безмятежность  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Дневник отчаянных пенсионеров  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Мрачный Взвод. Двенадцать дней Коляды  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Братья. Книга 3. Завтрашний царь. Том 1  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Улыбка Катерины. История матери Леонардо  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Орден Скорпионов  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Палитра его пороков  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Скрытые намерения  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Не вычеркивай меня из списка...  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Безлюдное место: Как ловят маньяков в России  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Осознанная кулинария. Полезный конструктор завтраков, обедов и ужинов на каждый день  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    15 шагов к ментальному и физическому здоровью. Система осознанной жизни  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Леди Баг и Супер-Кот. Большая энциклопедия о вселенной Леди Баг  </t>
+    <t xml:space="preserve">    Пучина скорби  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Виннипегская Стена и я  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Деньги не главное, главное - деньги  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Истребитель демонов. Том 14. "Му" в имени Муитиро  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Когда параллельные пересекутся. Том 2  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Магическая битва. Книга 10. Колония Токио № 1. Колония Сэндай  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ошибка Девочки-с-пальчик  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Возмездие Сандокана. Возвращение Момпрачема: романы  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Золотые земли. Его забрал лес  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Хикикомори  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Девушка из стекла  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Гончие Лилит  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Форсайт  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Жестяной барабан  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Несомненно счастливый конец. Книга 1  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Шесть зимних ночей  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Хочу - Mогу - Надо. Узнай себя и действуй!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Дом без воспоминаний  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Дотянуться до звезд  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Хрупкое равновесие. Книга 1  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Троецарствие: роман  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Шторм и ярость  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Как разговаривать с кем угодно, когда угодно и где угодно  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Портфель учителя  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Пять языков любви (как выразить любовь вашему спутнику)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Девочка, которая не видела снов  </t>
   </si>
   <si>
     <t xml:space="preserve">    Точки ци. Сила пяти драконов для восстановления организма и избавления от болей с помощью китайской медицины  </t>
   </si>
   <si>
-    <t xml:space="preserve">    Сказать жизни «Да!»: психолог в концлагере.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Грокаем алгоритмы. Иллюстрированное пособие для программистов и любопытствующих  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Императорский Див. Колдун Российской империи  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Слово пацана. Криминальный Татарстан 1970–2010-х  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Naruto. Наруто. Книга 1. Наруто Удзумаки  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Путешествия души  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Все закончится, а ты нет. Книга силы, утешения и поддержки  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Поднятие уровня в одиночку. Solo Leveling. Книга 1 (исправленное издание)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    С тобой я дома. Книга о том, как любить друг друга, оставаясь верными себе  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Харизма: Как влиять, убеждать и вдохновлять  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Will. Чему может научить нас простой парень, ставший самым высокооплачиваемым актером Голливуда   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Мой театр. Книга II  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Наследница черного дракона   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Свобода от тревоги. Справься с тревогой, пока она не расправилась с тобой  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Смерть заберет с собой осень  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Мастер и Маргарита  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Тренируй свой мозг. Японская система развития интеллекта и памяти.Продвинутая версия  </t>
+    <t xml:space="preserve">    Водоворот. Сборник рассказов  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Бегущий за ветром  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Жареные зеленые помидоры в кафе "Полустанок"  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Белая рыба. Сказания о Бай и Ю. Тени прошлого  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Удушающая сладость, заиндевелый пепел. Книга 2  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Лолита  </t>
   </si>
   <si>
     <t>writer</t>
   </si>
   <si>
+    <t xml:space="preserve">    Марга Биацци  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Татьяна Корсакова  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Айда Иро  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Квон Гёыль  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Джошуа Феррис  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    jwitless art   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ирена Мадир  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Эйдзи Микагэ  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Александра Ибис  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Хлоя Уолш  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Марина Индиви, Валерия Чернованова  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Х. Д. Карлтон  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Кристофер Руоккио  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Даниил Калинин  </t>
+  </si>
+  <si>
     <t xml:space="preserve">    Евгения Потапова  </t>
   </si>
   <si>
-    <t xml:space="preserve">    Алексей Смирнов фон Раух  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Кристина Той  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Дмитрий Якушев  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Х. Д. Карлтон  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Наталья Калинина  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Ирина Градова  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Екатерина Тюхай  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Лиза Клейпас  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Рита Хоффман  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Денис Ратманов  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Дж. Уайлдер  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Анастасия Андрианова  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Алиса Ардова  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Масаси Кисимото  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Дзюн Мотидзуки  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Лара Галль  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Анатолий Мигов, Елена Мигова  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Мария Семенова  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Карло Вечче  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Айви Эшер  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Анна Веммер  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Майк Омер  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Дина Рубина  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Саша Сулим  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Дарья Савельева, Дарья Третьякова  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Дарья Савельева  </t>
+    <t xml:space="preserve">    Альбина Нури  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Мариана Запата  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Сергей Гришин  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Коёхару Готогэ  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Хань Сюй L-Mo  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Гэгэ Акутами  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Дарья Донцова  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Эмилио Сальгари  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ульяна Черкасова  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ариэла Рицци, Фабрицио Силеи  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Юлия Кот  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Кристина Старк  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Сергей Лукьяненко  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Гюнтер Грасс  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Флада   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Лизз Демаро, Мария Покусаева  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Марина Мелия  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Донато Карризи  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Эмма Скотт  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ана Шерри  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ло Гуань-чжун  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Дженнифер Арментроут  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Билл Джилберт, Ларри Кинг  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Хироми Каваками  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Гэри Чепмен  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Сара Бет Дёрст  </t>
   </si>
   <si>
     <t xml:space="preserve">    Ирина Старкова, Алена Старкова  </t>
   </si>
   <si>
-    <t xml:space="preserve">    Виктор Франкл  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Адитья Бхаргава  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Виктор Дашкевич  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Роберт Гараев  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Майкл Ньютон  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Ольга Примаченко  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Чхугон   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Оливия Кабейн  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Уилл Смит  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Николай Цискаридзе  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Анна Джейн  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Роберт Лихи  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Эмма Рид Джонсон  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Михаил Булгаков  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Рюта Кавашима  </t>
+    <t xml:space="preserve">    Маргарита Симоньян  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Халед Хоссейни  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Фэнни Флэгг  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Гу Шу  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Дянь Сянь  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Владимир Набоков  </t>
   </si>
   <si>
     <t>book prise</t>
   </si>
   <si>
-    <t xml:space="preserve">    425 ₽  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    750 ₽  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    600 ₽  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    538 ₽  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    868 ₽  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    209 ₽  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    688 ₽  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    469 ₽  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    633 ₽  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    738 ₽  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    513 ₽  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1 085 ₽  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    661 ₽  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    672 ₽  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    476 ₽  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    730 ₽  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1 019 ₽  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    950 ₽  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    789 ₽  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    588 ₽  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1 350 ₽  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    721 ₽  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    973 ₽  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    559 ₽  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1 016 ₽  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    642 ₽  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    849 ₽  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1 120 ₽  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    566 ₽  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    835 ₽  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    904 ₽  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    331 ₽  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1 152 ₽  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1 730 ₽  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    334 ₽  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    517 ₽  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    534 ₽  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    500 ₽  </t>
+    <t xml:space="preserve">
+    869 ₽
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    425 ₽
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    661 ₽
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    932 ₽
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    950 ₽
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    469 ₽
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    644 ₽
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    861 ₽
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    538 ₽
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    794 ₽
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    848 ₽
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    450 ₽
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    566 ₽
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    1 099 ₽
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    921 ₽
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    581 ₽
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    884 ₽
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    711 ₽
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    749 ₽
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    699 ₽
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    690 ₽
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    868 ₽
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    888 ₽
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    770 ₽
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    551 ₽
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    1 337 ₽
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    331 ₽
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    513 ₽
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    349 ₽
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    672 ₽
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    945 ₽
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    771 ₽
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    784 ₽
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    574 ₽
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    721 ₽
+  </t>
   </si>
 </sst>
 </file>
@@ -804,7 +880,7 @@
         <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -818,7 +894,7 @@
         <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -832,7 +908,7 @@
         <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -846,7 +922,7 @@
         <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -860,7 +936,7 @@
         <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -874,7 +950,7 @@
         <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -888,7 +964,7 @@
         <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -902,7 +978,7 @@
         <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -916,7 +992,7 @@
         <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -930,7 +1006,7 @@
         <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -944,7 +1020,7 @@
         <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -958,7 +1034,7 @@
         <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -972,7 +1048,7 @@
         <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -986,7 +1062,7 @@
         <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1000,7 +1076,7 @@
         <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1014,7 +1090,7 @@
         <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1028,7 +1104,7 @@
         <v>68</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1038,8 +1114,11 @@
       <c r="B19" t="s">
         <v>20</v>
       </c>
+      <c r="C19" t="s">
+        <v>69</v>
+      </c>
       <c r="D19" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1050,10 +1129,10 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D20" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1064,10 +1143,10 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D21" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1078,10 +1157,10 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D22" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1092,10 +1171,10 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D23" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1106,10 +1185,10 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1120,10 +1199,10 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D25" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1134,10 +1213,10 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D26" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1148,10 +1227,10 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D27" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1162,10 +1241,10 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D28" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1176,10 +1255,10 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D29" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1190,10 +1269,10 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D30" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1204,10 +1283,10 @@
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D31" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1217,8 +1296,11 @@
       <c r="B32" t="s">
         <v>33</v>
       </c>
+      <c r="C32" t="s">
+        <v>82</v>
+      </c>
       <c r="D32" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1229,10 +1311,10 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D33" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1243,10 +1325,10 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D34" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1257,10 +1339,10 @@
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1271,10 +1353,10 @@
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D36" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1285,10 +1367,10 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D37" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1299,10 +1381,10 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="D38" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1313,10 +1395,10 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D39" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1327,10 +1409,10 @@
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D40" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1341,10 +1423,10 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D41" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1355,10 +1437,10 @@
         <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D42" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1369,10 +1451,10 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D43" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1383,10 +1465,10 @@
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D44" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1397,10 +1479,10 @@
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D45" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1411,10 +1493,10 @@
         <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D46" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1425,10 +1507,10 @@
         <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D47" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1439,10 +1521,10 @@
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D48" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1453,10 +1535,10 @@
         <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D49" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1467,10 +1549,10 @@
         <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D50" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/Book_from_chitay_gorod.xlsx
+++ b/Book_from_chitay_gorod.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="492">
   <si>
     <t>Name</t>
   </si>
@@ -25,476 +25,1471 @@
     <t>Price</t>
   </si>
   <si>
-    <t>book</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Воспоминания нэкоматы, кошки-оборотня: графический роман  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Один сон на двоих  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Туалетный мальчик Ханако. Том 6  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Единственный конец злодейки - смерть. Том 3  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Slayer. Титаны американского трэш-метала  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Манга. Нарисуй своего героя  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Аконит  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Пустая шкатулка и нулевая Мария. Книга 7: ранобэ  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Полюбить учителя главного героя  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Удержать 13-го  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Бунтарка и Хозяин Стужи  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Преследуя Аделин. Специальное издание  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Прах человеческий  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Варяжское море. Воин  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Ведьма Агнета. Демон-помощник и заколдованная комната  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Пучина скорби  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Виннипегская Стена и я  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Деньги не главное, главное - деньги  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Истребитель демонов. Том 14. "Му" в имени Муитиро  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Когда параллельные пересекутся. Том 2  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Магическая битва. Книга 10. Колония Токио № 1. Колония Сэндай  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Ошибка Девочки-с-пальчик  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Возмездие Сандокана. Возвращение Момпрачема: романы  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Золотые земли. Его забрал лес  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Хикикомори  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Девушка из стекла  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Гончие Лилит  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Форсайт  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Жестяной барабан  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Несомненно счастливый конец. Книга 1  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Шесть зимних ночей  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Хочу - Mогу - Надо. Узнай себя и действуй!  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Дом без воспоминаний  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Дотянуться до звезд  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Хрупкое равновесие. Книга 1  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Троецарствие: роман  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Шторм и ярость  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Как разговаривать с кем угодно, когда угодно и где угодно  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Портфель учителя  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Пять языков любви (как выразить любовь вашему спутнику)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Девочка, которая не видела снов  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Точки ци. Сила пяти драконов для восстановления организма и избавления от болей с помощью китайской медицины  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Водоворот. Сборник рассказов  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Бегущий за ветром  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Жареные зеленые помидоры в кафе "Полустанок"  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Белая рыба. Сказания о Бай и Ю. Тени прошлого  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Удушающая сладость, заиндевелый пепел. Книга 2  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Лолита  </t>
-  </si>
-  <si>
-    <t>writer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Марга Биацци  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Татьяна Корсакова  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Айда Иро  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Квон Гёыль  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Джошуа Феррис  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    jwitless art   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Ирена Мадир  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Эйдзи Микагэ  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Александра Ибис  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Хлоя Уолш  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Марина Индиви, Валерия Чернованова  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Х. Д. Карлтон  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Кристофер Руоккио  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Даниил Калинин  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Евгения Потапова  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Альбина Нури  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Мариана Запата  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Сергей Гришин  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Коёхару Готогэ  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Хань Сюй L-Mo  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Гэгэ Акутами  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Дарья Донцова  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Эмилио Сальгари  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Ульяна Черкасова  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Ариэла Рицци, Фабрицио Силеи  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Юлия Кот  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Кристина Старк  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Сергей Лукьяненко  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Гюнтер Грасс  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Флада   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Лизз Демаро, Мария Покусаева  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Марина Мелия  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Донато Карризи  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Эмма Скотт  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Ана Шерри  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Ло Гуань-чжун  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Дженнифер Арментроут  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Билл Джилберт, Ларри Кинг  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Хироми Каваками  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Гэри Чепмен  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Сара Бет Дёрст  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Ирина Старкова, Алена Старкова  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Маргарита Симоньян  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Халед Хоссейни  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Фэнни Флэгг  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Гу Шу  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Дянь Сянь  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Владимир Набоков  </t>
-  </si>
-  <si>
-    <t>book prise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    869 ₽
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    425 ₽
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    661 ₽
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    932 ₽
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    950 ₽
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    469 ₽
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    644 ₽
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    861 ₽
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    538 ₽
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    794 ₽
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    848 ₽
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    450 ₽
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    566 ₽
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    1 099 ₽
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    921 ₽
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    581 ₽
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    884 ₽
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    711 ₽
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    749 ₽
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    699 ₽
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    690 ₽
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    868 ₽
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    888 ₽
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    770 ₽
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    551 ₽
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    1 337 ₽
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    331 ₽
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    513 ₽
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    349 ₽
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    672 ₽
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    945 ₽
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    771 ₽
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    784 ₽
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    574 ₽
-  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    721 ₽
-  </t>
+    <t xml:space="preserve">    Грокаем алгоритмы. Иллюстрированное пособие для программистов и любопытствующих  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python. Самое полное руководство по разработке в примерах от сообщества Stack Overflow  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python с нуля  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python для детей и родителей. Играй и программируй  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python глазами хакера  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python для Excel. Современная среда для автоматизации и анализа данных  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python-интенсив: 50 быстрых упражнений  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python на примерах. Практика, практика и только практика  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python, Django и Bootstrap для начинающих  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python для data science  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python. Полное руководство  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python. К вершинам мастерства. Локаничное и эффективное программирование  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python - это просто. Пошаговое руководство по программированию и анализу данных  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python. Как стать профессионалом  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python для финансистов. Базовые концепции  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python: быстрый старт   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python. Красивые задачи для начинающих  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python для сложных задач: наука о данных и машинное обучение  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python для детей. Курс для начинающих  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python для сложных задач: наука о данных. 2-е издание  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python. Экспресс-курс. 3-е издание  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python, например  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python для сетевых инженеров. Автоматизация сети, программирование и DevOps  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python для детей. Самоучитель по программированию  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python за 7 дней. Краткий курс для начинающих  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python. 12 уроков для начинающих  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python. Исчерпывающее руководство  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python для юных программистов  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    PYTHON и анализ данных  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python. Создаем программы и игры  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python без проблем: решаем реальные задачи и пишем полезный код  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python для гиков  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python 3 и PyQt 6. Разработка приложений  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python для аналитики данных. Практический курс  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python для детей, которые пока не программируют  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python. Книга Рецептов  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python для всех   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python. Лучшие практики и инструменты  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python. Разработка на основе тестирования  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python для детей  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python. Непрерывная интеграция и доставка  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python на практике  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python 3. Самое необходимое. 2-е издание, переработанное и дополненное  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python. Сборник упражнений. Введение в язык Python с задачами и решениями  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python. Чистый код для продолжающих  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python. Великое программирование в Minecraft  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python и DevOps: Ключ к автоматизации Linux  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python и машинное обучение  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python Создаем программы и игры  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python. Погружение в математику с Minecraft  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python для чайников  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Программирование на Python в примерах и задачах  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Справочник PYTHON. Кратко, быстро, под рукой  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Начинаем программировать на Python. 5-е издание  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Высокопроизводительные Python-приложения. Эффективное программирование на практике  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Программирование на Python с нуля. Учимся думать как программисты, осваиваем логику языка и пишем первый код!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Учим Python, делая крутые игры  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Изучаем программирование на Python  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Программируем с детьми. Создайте 50 крутых игр на Python   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Легкий способ выучить Python 3 еще глубже  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Легкий способ выучить Python 3  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Изучаем Python: программирование игр, визуализация данных, веб-приложения  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    40 алгоритмов, которые должен знать каждый программист на Python  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Простой Python. Современный стиль программирования  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Практическая статистика для специалистов Data Science. 50+ важнейших понятий с использованием R и Python  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Мама, не отвлекай. Я Python учу!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Объектно-ориентированное программирование с помощью Python  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Программируем на Python  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Чистый Python. Тонкости программирования для профи  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Black Hat Python: программирование для хакеров и пентестеров, 2-е изд  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Знакомьтесь, Python. Секреты профессии  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Основы искусственного интеллекта в примерах на Python. Самоучитель  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Знакомство с Python  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Сетевое программирование на Python  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Внутри CPYTHON: гид по интерпретатору Python  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Основы Python. Научитесь думать как программист  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Django 3.0. Практика создания веб-сайтов на Python  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Алгоритмический тренинг. Решения практических задач на Python и C++  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Основы Python для Data Science  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Asyncio и конкурентное программирование на Python  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Квантовая химия и квантовые вычисления с примерами на Python  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Грокаем глубокое обучение  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Непрактичный" Python: занимательные проекты для тех, кто хочет поумнеть  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Надежный Python  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Математические алгоритмы для программистов. 3D-графика, машинное обучение и моделирование на Python  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Алгоритмы. С примерами на Python  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Компьютерное зрение на Python. Первые шаги  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Начнем.Python. Просто о сложном  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Основы программирования на языке Python  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Цифровая обработка сигналов на языке Python (м) Дауни  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Биоинформатика с PYTHON. Книга рецептов  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Объяснимые модели искусственного интеллекта на Python  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Разработка веб-приложений с использованием Flask на языке Python  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Изучаем основы Python. Практический курс для дата-аналитиков  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Алгоритмы обучения с подкреплением на Python. Описание и разработка алгоритмов искусственного интелекта  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    HTML, CSS, SCRATCH, PYTHON. Моя первая книга по программированию  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Крупномасштабное машинное обучение вместе с Python  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Программирование на Python. Первые шаги  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Обработка данных на Python. Data Wrangling и  Data Quality  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Программирование. Python. C++. Часть 4. Учебное пособие  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Глубокое обучение на Python  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Робототехника. Управление квадрокоптером: Квадрокоптер Tello. Программирование на языке Python. 8-11 классы.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Интерпретируемое машинное обучение на Python  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Простой Python просто с нуля  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Анализ социальных медиа на Python  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Структуры данных в Python. Начальный курс  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Скраппинг веб-сайтов с помощью Python  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Программирование GPU при помощи Python и CUDA  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Прогнозное моделирование в IBM SPSS Statistics, R и Python Метод деревьев решений и случайный лес  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Профессиональная разработка на Python   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Использование языка Python в теории вероятностей. Учебник  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Эволюционные нейросети на языке Python  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Генетические алгоритмы на Python. Применение генетических алгоритмов к решению задач глубокого обучения и искуственного интеллекта  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Аналитика в Power BI с помощью R и Python  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Pyomo. Моделирование оптимизации на Python  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Байесовский анализ на Python. Введение в статистическое моделирование и вероятностное программирование с использованием PyMC3 и ArviZ  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Twisted из первых рук. Событийное и асинхронное программирование на Python  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Изучаем квантовые вычисления на Python и Q#   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Практическое введение в решение дифференциальных уравнений в Python  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Устройство и программирование автономных роботов. Проекты на PYTHON и RASPBERRY PI  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Глубокое обучение с подкреплением. Теория и практика на языке Python  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Секреты Python Pro  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Простой Python для опытных программистов   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Предварительная подготовка данных в PYTHON. Том 1. Инструменты и валидация  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Безопасность веб-приложений на Python  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Программирование компьютерного зрения на Python  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Разработка геоприложений на языке Python  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Математика на Python. Часть I. Элементы линейной алгебры и аналитической геометрии. Учебно-методическое пособие  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Изучение робототехники с помощью Python  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Вероятностное программирование на Python: байесовский вывод и алгоритмы  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Изучение сложных систем с помощью Python  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Задачи по дискретной математике с алгоритмами на Python  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Легкий способ выучить Python  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Начинаем программировать на Python. 4-е издание  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Django 2.1 Практика создания веб-сайтов на Python. Модели, контроллеры и шаблоны. Разграничение доступа. Аутентификация через социальные сети. Вывод миниатюр. Bootstrap. Captcha. Angular. Bbcode. Rest  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Научное программирование на Python   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Трехмерное глубокое обучение на PYTHON  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Обучение с подкреплением на PyTorch: сборник рецептов. Свыше 60 рецептов проектирования, разработки и развертывания самообучающихся моделей на Python  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Объектно-ориентированный Python, 4-е изд.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Предварительная подготовка данных в PYTHON. Том 2. План, примеры и метрики качества  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Стержень гелевый "InColor Purple Python" синий, ErichKrause  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Computer Science для программиста-самоучки. Все что нужно знать о структурах данных и алгоритмах  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python. Создай свою первую игру с нуля! Самоучитель в примерах  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python 3. Самое необходимое  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python, Django и PyCharm для начинающих   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python. Карманный справочник  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python на примерах. Практический курс по программированию, 2-е издание  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python Справочник Полное описание языка (3 изд.) Мартелли  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python на примерах. Практический курс по программированию  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python. Великое программирование в Minecraft   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python и машинное обучение. Машинное и глубокое обучение с использованием Python, scikit-learn и TensorFlow  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python 3 и PyQt 5. Разработка приложений  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python для детей и родителей  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python для хакеров. Нетривиальные задачи и проекты  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python для программирования криптовалют  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Машинное обучение с помощью Python для всех. Руководство по созданию систем машинного обучения: от основ до мощных инструментов  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Миссия: Python. Создаем игры вместе с детьми  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Программирование на Python для начинающих  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Большая книга проектов Python  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Паттерны разработки на Python: TDD, DDD и событийно-ориентированная архитектура  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Изучаем Python. Программирование игр, визуализация данных, веб-приложения  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    GPT-3: программирование на PYTHON в примерах  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Как устроен Python. Гид для разработчиков, программистов и интересующихся  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Однострочники Python: лаконичный и содержательный код  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Автостопом по Python  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Алгоритмы Data Science и их практическая реализация на Python: учебное пособие  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Язык программирования Python: практикум. Учебное пособие  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Анализ поведенческих данных на R и Python   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Глубокое обучение: легкая разработка проектов на Python  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Стандартная библиотека Python 3: справочник с примерами, 2-е издание  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Вычислительная математика на смартфонах, коммуникаторах и ноутбуках с использованием программных сред Python: Учебное пособие.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Программирование на Python. Иллюстрированное руководство для детей  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Криптография и взлом шифров на Python  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Программирование на Python: базовый курс  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Путь Python. Черный пояс по разработке, масштабированию, тестированию и развертыванию  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Классические задачи Computer Science на языке Python  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Разработка приложений с графическим пользовательским интерфейсом на языке Python. Учебное пособие для СПО.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Численные методы. Вычислительный практикум. Практическое применение численных методов при использовании алгоритмического языка Python  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Minecraft. Программируй свой мир на Python. 2-е межд. изд.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Программирование. Python. C++. Часть 1. Учебное пособие  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Программирование. Python. C++. Часть 2. Учебное пособие  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Программирование. Python. C++. Часть 3. Учебное пособие  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Практикум по математической статистике. Проверка гипотез с использованием Excel, MatCalc, R и Python  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Прикладной анализ текстовых данных на Python. Машинное обучение и создание приложений обработки естественного языка  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Глубокое обучение с подкреплением на Python. OpenAI Gym и TensorFlow для профи  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Машинное обучение с использованием Python. Сборник рецептов  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Обработка естественного языка. Python и spaCy на практике  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Основы Data Science и Big Data. Python и наука о данных  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Django: практика создания Web-сайтов на Python  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Секреты Python: 59 рекомендаций по написанию эффективного кода  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Разработка с использованием квантовых компьютеров. Программирование квантовых машин в облаке: Python, Qiskit, Quantum Assembly language и IBM Qexperience  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Программирование для детей на языке Python  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Введение в машинное обучение с помощью Python. Руководство для специалистов по работе с данными  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Основы алгоритмизации и программирования на Python  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Информатика. 8-9 классы. Начала программирования на языке Python. Дополнительные главы к учебникам  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Алгоритмы на графах. Использование языка Python  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Экономика на Python. Учебник  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Учимся программировать с примерами на Python  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Практикум по анализу данных на языках Python и R: Учебное пособие  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Машинное обучение: карманный справочник. Краткое руководство по методам структурированного машинного обучения на Python  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python. К вершинам мастерства  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python в системном администрировании UNIX и Linux  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python и анализ данных  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python для финансовых расчетов. Искусство работы с финансовыми данными  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python. Искусственный интеллект, большие данные и облачные вычисления  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python и наука о данных для чайников  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python и анализ данных. Первичная обработка данных с применением pandas, NumPy и Ipython  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Python для непрограммистов. Самоучитель в примерах  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Изучаем Python. Том 2  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Программирование на языке Python: учебный курс  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Построение систем машинного обучения на языке Python  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Программирование на Python, том II, 4-е издание.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Изучаем Python. Том 1  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Автоматизация рутинных задач с помощью Python: практическое руководство для начинающих  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Алгоритмы. Справочник с примерами на C, C++, Java и Python, 2-е издание  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Сверхбыстрый Python. Эффективные техники для работы с большими наборами данных  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Разработка приложений с графическим пользовательским интерфейсом на языке Python. Учебное пособие для вузов  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Язык программирования Python. Учебное пособие  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Искусственный интеллект с примерами на Python. Создание приложений искусственного интеллекта с помощью Python для взаимодействия с окружающим миром  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Django. Разработка веб-приложений на Python. - Пер. с англ.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Автоматизация рутинных задач с помощью Python. Практическое руководство для начинающих. 2-е издание  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Алгебра и геометрия с примерами на Python. Учебное пособие для вузов  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Современный скрапинг веб-сайтов с помощью Python  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Программируем с Minecraft. Создай свой мир с помощью Python  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Программирование на языке высокого уровня Python. Учебное пособие для СПО  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Прикладное машинное обучение без учителя с использованием Python  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Глубокое обучение и TensorFlow для профессионалов. Математический подход к построению систем искусственного интеллекта на Python  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Основы программирования на Python  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Безопасность веб-приложений на PYTHON  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Web-программирование на Python. Учебное пособие для вузов, 2-е изд., стер.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Искусственный интеллект и компьютерное зрение. Реальные проекты на Python, Keras и TensorFlow  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Программируем на Python в Minecraft  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Адитья Бхаргава  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Петр Левашов  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Брайсон Пэйн  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    М. Бруцкий-Стемпковский  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Феликс Зумштейн  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Реувен Лернер  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Д. Кольцов  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Анатолий Постолит  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Юлий Васильев  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Лучано Рамальо  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Нилаб Нисчал  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Дуг Фаррелл  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ив Хилпиш  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ду Чан  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Павел Добряк  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Дж. Вандер Плас  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Александр Банкрашков  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Наоми Седер  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Никола Лейси  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Эрик Чоу  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Джейсон Бриггс  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Эндрю Парк  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Дэвид Бизли  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Денис Голиков  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Уэс Маккинни  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Даниэль Зингаро  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Мухаммад Азиф  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Владимир Дронов, Николай Прохоренок  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Павел Меликов  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Елена Крылова  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Чарльз Р. Северанс  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Тарек Зиаде, Михал Яворски  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ханс-Георг Шуманн  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Мориц Ленц  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Александр Киселев  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Николай Прохоренок  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Брайан Стивенсон  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Эл Свейгарт  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Андрей Корягин, Алиса Корягина  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ной Гифт  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Себастьян Рашка  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Джон Пол Мюллер  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Алексей Васильев  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Тони Гэддис  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Миша Горелик  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Патриша Фостер  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Пол Бэрри  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Адриана Таке  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Зед А. Шоу  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Эрик Мэтиз  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Имран Ахмад  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Билл Любанович  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Питер Брюс  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Игорь Лазаревский  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ирв Кальб  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Майкл Доусон  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Дэн Бейдер  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Джастин Зейтц  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Евгений Павлов  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Дэн Бейдер, Дэвид Эймос, Джоанна Яблонски  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Джон Галбрейт  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Этнони Шоу  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Аллен Б. Дауни  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Владимир Дронов  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Максим Иванов  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Кеннеди Берман  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Мэттью Фаулер  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ален Чанс, Кипер Шарки  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Эндрю Траск  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ли Воган  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Патрик Виафоре  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Пол Орланд  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Джордж Хайнеман  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    _x000D_Эдуард Шакирьянов  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    С. Иванов  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Дмитрий Златопольский  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Тиаго Антао  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Прадипта Мишра  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Мигель Гринберг  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Андреа Лонца  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Альберто Боскетти, Лука Массарон, Бастиан Шарден  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    А. Щерба  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    _x000D_Сьюзен Макгрегор  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Константин Поляков  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Франсуа Шолле  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Денис Копосов  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Серг Масис  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Рик Гаско  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Марко Бонцанини  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Дональд Р. Шихи  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Райан Митчелл  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Бриан Тоуманнен  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Артем Груздев  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Сергей Криволапов  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ярослав Омельяненко  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Эйял Вирсански  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Розалин Уэйд  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Майкл Л. Бинум, Габриэль А. Хакебейл, Уильям Э. Харт  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Освальдо Мартин  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Моше Задка  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Николай Ершов  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Дэнни Стейпл  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Лаура Грессер  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Д. Хиллард  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Деннис Бирн  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ян Солем  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Эрик Вестра  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Анна Балджы  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Джозеф Лентин  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Кэмерон Дэвидсон-Пайлон  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Сергей Борзунов, Сергей Кургалин  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Кейси Хилл  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Лилит Йольан, Ксудонг Ма, Вишах Хегде  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Юси Лю  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Стержни для ручек  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Кори Альтхофф  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Марк Лутц  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    А.Н. Васильев  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Алекс Мартелли  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Михал Яворски  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Андрей Корягин  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Михаил Райтман  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Джимми Сонг  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Шон Макманус  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Майк МакГрат  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Гарри Персиваль  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Эль Амри Аймен  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Мэтт Харрисон  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Кристиан Майер  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Кеннет Ритц, Таня Шлюссер  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Андрей Протодьяконов, Петр Пылов, Владимир Садовников  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Роман Жуков  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Флоран Бюиссон  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Сет Вейдман  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Даг Хеллман  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Игорь Соловьев  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Кэрол Вордерман  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Джульен Данжу  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Дэвид Копец  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Сергей Букунов, Ольга Букунова  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Петр Вабищевич  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Дэвид Вэйл, Мартин О'Хэнлон  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Владимир Глебов  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Бенджамин Бенгфорт, Ребекка Билбро, Тони Охеда  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Судхарсан Равичандиран  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Крис Элбон  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Юрий Васильев  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    А.Г. Гузикевич, Бретт Слаткин  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Владимир Силва  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Андреас Мюллер  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Сергей Гуриков  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Людмила Босова  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Олег Мельников  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Марина Хрипунова  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Элизабет Фримен, Эрик Фримен  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    О. Баюк, Мариам Исаева, Максим Самсонкин  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Пол Дж. Дейтел  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Роберт Седжвик  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Гэри Поллис, Стэнли Селков, Джордж Хайнеманн  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Крейг Ричардсон  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Дмитрий Федоров  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Анирад Коул, Казам Мехер, Ганджу Сиддха  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1 016 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1 356 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1 959 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1 256 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    369 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1 462 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    869 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    541 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    894 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1 666 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    906 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4 179 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    861 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2 030 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1 063 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    883 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    731 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2 786 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1 568 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3 766 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1 334 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1 106 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    615 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2 211 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    762 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3 009 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    629 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1 596 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1 006 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1 509 ₽  </t>
+  </si>
+  <si>
+    <t>no prise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    839 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1 169 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4 046 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3 176 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1 671 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1 336 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    959 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2 233 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2 527 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2 674 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    340 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    890 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1 306 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    490 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2 012 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1 731 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    994 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1 044 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1 825 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1 645 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1 925 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2 016 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    922 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    973 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1 638 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1 396 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1 527 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1 381 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2 114 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1 263 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1 946 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1 104 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1 342 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2 086 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2 841 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2 507 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1 189 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    984 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3 430 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    755 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1 002 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2 172 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2 005 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    604 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1 837 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1 062 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    624 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    940 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1 677 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1 504 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1 420 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2 506 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2 355 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    920 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4 012 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1 900 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1 565 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    415 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1 205 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    835 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3 203 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1 399 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    644 ₽  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2 294 ₽  </t>
   </si>
 </sst>
 </file>
@@ -852,7 +1847,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -877,10 +1872,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>235</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -890,11 +1885,8 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>53</v>
-      </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -905,10 +1897,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>236</v>
       </c>
       <c r="D4" t="s">
-        <v>103</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -919,10 +1911,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>237</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -933,10 +1925,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>238</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>401</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -947,10 +1939,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>239</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -961,10 +1953,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>240</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -975,10 +1967,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>241</v>
       </c>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>404</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -989,10 +1981,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>242</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>405</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1003,10 +1995,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>243</v>
       </c>
       <c r="D11" t="s">
-        <v>110</v>
+        <v>406</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1017,10 +2009,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>241</v>
       </c>
       <c r="D12" t="s">
-        <v>111</v>
+        <v>407</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1031,10 +2023,10 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>244</v>
       </c>
       <c r="D13" t="s">
-        <v>110</v>
+        <v>408</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1045,10 +2037,10 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>245</v>
       </c>
       <c r="D14" t="s">
-        <v>102</v>
+        <v>409</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1059,10 +2051,10 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>246</v>
       </c>
       <c r="D15" t="s">
-        <v>112</v>
+        <v>405</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1073,10 +2065,10 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>247</v>
       </c>
       <c r="D16" t="s">
-        <v>110</v>
+        <v>410</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1087,10 +2079,10 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>248</v>
       </c>
       <c r="D17" t="s">
-        <v>103</v>
+        <v>411</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1101,10 +2093,10 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>249</v>
       </c>
       <c r="D18" t="s">
-        <v>113</v>
+        <v>412</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1115,10 +2107,10 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>250</v>
       </c>
       <c r="D19" t="s">
-        <v>114</v>
+        <v>399</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1129,10 +2121,10 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>251</v>
       </c>
       <c r="D20" t="s">
-        <v>106</v>
+        <v>413</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1143,10 +2135,10 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>250</v>
       </c>
       <c r="D21" t="s">
-        <v>104</v>
+        <v>414</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1157,10 +2149,10 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>252</v>
       </c>
       <c r="D22" t="s">
-        <v>115</v>
+        <v>410</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1171,10 +2163,10 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>253</v>
       </c>
       <c r="D23" t="s">
-        <v>116</v>
+        <v>415</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1185,10 +2177,10 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>254</v>
       </c>
       <c r="D24" t="s">
-        <v>117</v>
+        <v>416</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1199,10 +2191,10 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>255</v>
       </c>
       <c r="D25" t="s">
-        <v>118</v>
+        <v>417</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1213,10 +2205,10 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>256</v>
       </c>
       <c r="D26" t="s">
-        <v>119</v>
+        <v>418</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1227,10 +2219,10 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="D27" t="s">
-        <v>120</v>
+        <v>419</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1241,10 +2233,10 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>257</v>
       </c>
       <c r="D28" t="s">
-        <v>121</v>
+        <v>420</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1255,10 +2247,10 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="D29" t="s">
-        <v>122</v>
+        <v>421</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1269,10 +2261,10 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>259</v>
       </c>
       <c r="D30" t="s">
-        <v>123</v>
+        <v>422</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1283,10 +2275,10 @@
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>241</v>
       </c>
       <c r="D31" t="s">
-        <v>124</v>
+        <v>423</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1297,10 +2289,10 @@
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>82</v>
+        <v>260</v>
       </c>
       <c r="D32" t="s">
-        <v>125</v>
+        <v>424</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1311,10 +2303,10 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>83</v>
+        <v>261</v>
       </c>
       <c r="D33" t="s">
-        <v>126</v>
+        <v>425</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1325,10 +2317,10 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>262</v>
       </c>
       <c r="D34" t="s">
-        <v>107</v>
+        <v>426</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1339,10 +2331,10 @@
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>85</v>
+        <v>263</v>
       </c>
       <c r="D35" t="s">
-        <v>120</v>
+        <v>427</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1353,10 +2345,10 @@
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>86</v>
+        <v>264</v>
       </c>
       <c r="D36" t="s">
-        <v>108</v>
+        <v>428</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1367,10 +2359,10 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>87</v>
+        <v>257</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>427</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1381,10 +2373,10 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>88</v>
+        <v>265</v>
       </c>
       <c r="D38" t="s">
-        <v>127</v>
+        <v>429</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1395,10 +2387,10 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>89</v>
+        <v>266</v>
       </c>
       <c r="D39" t="s">
-        <v>123</v>
+        <v>430</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1408,11 +2400,8 @@
       <c r="B40" t="s">
         <v>41</v>
       </c>
-      <c r="C40" t="s">
-        <v>90</v>
-      </c>
       <c r="D40" t="s">
-        <v>128</v>
+        <v>431</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1423,10 +2412,10 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
+        <v>267</v>
       </c>
       <c r="D41" t="s">
-        <v>129</v>
+        <v>432</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1437,10 +2426,10 @@
         <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>92</v>
+        <v>268</v>
       </c>
       <c r="D42" t="s">
-        <v>130</v>
+        <v>427</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1451,10 +2440,10 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>93</v>
+        <v>269</v>
       </c>
       <c r="D43" t="s">
-        <v>114</v>
+        <v>433</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1465,10 +2454,10 @@
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>94</v>
+        <v>270</v>
       </c>
       <c r="D44" t="s">
-        <v>131</v>
+        <v>434</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1479,10 +2468,10 @@
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>95</v>
+        <v>271</v>
       </c>
       <c r="D45" t="s">
-        <v>132</v>
+        <v>429</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1493,10 +2482,10 @@
         <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>96</v>
+        <v>272</v>
       </c>
       <c r="D46" t="s">
-        <v>133</v>
+        <v>435</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1507,10 +2496,10 @@
         <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>97</v>
+        <v>273</v>
       </c>
       <c r="D47" t="s">
-        <v>134</v>
+        <v>434</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1521,10 +2510,10 @@
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>98</v>
+        <v>274</v>
       </c>
       <c r="D48" t="s">
-        <v>135</v>
+        <v>436</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1535,10 +2524,10 @@
         <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>99</v>
+        <v>275</v>
       </c>
       <c r="D49" t="s">
-        <v>136</v>
+        <v>437</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1549,10 +2538,2682 @@
         <v>51</v>
       </c>
       <c r="C50" t="s">
+        <v>241</v>
+      </c>
+      <c r="D50" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" t="s">
+        <v>273</v>
+      </c>
+      <c r="D51" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" t="s">
+        <v>276</v>
+      </c>
+      <c r="D52" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" t="s">
+        <v>277</v>
+      </c>
+      <c r="D53" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" t="s">
+        <v>241</v>
+      </c>
+      <c r="D54" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" t="s">
+        <v>278</v>
+      </c>
+      <c r="D55" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" t="s">
+        <v>279</v>
+      </c>
+      <c r="D56" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" t="s">
+        <v>280</v>
+      </c>
+      <c r="D57" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" t="s">
+        <v>272</v>
+      </c>
+      <c r="D58" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" t="s">
+        <v>281</v>
+      </c>
+      <c r="D59" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" t="s">
+        <v>282</v>
+      </c>
+      <c r="D60" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" t="s">
+        <v>283</v>
+      </c>
+      <c r="D61" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" t="s">
+        <v>283</v>
+      </c>
+      <c r="D62" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" t="s">
+        <v>284</v>
+      </c>
+      <c r="D63" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" t="s">
+        <v>285</v>
+      </c>
+      <c r="D64" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" t="s">
+        <v>286</v>
+      </c>
+      <c r="D65" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" t="s">
+        <v>287</v>
+      </c>
+      <c r="D66" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" t="s">
+        <v>288</v>
+      </c>
+      <c r="D67" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" t="s">
+        <v>289</v>
+      </c>
+      <c r="D68" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69" t="s">
+        <v>290</v>
+      </c>
+      <c r="D69" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" t="s">
+        <v>291</v>
+      </c>
+      <c r="D70" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71" t="s">
+        <v>292</v>
+      </c>
+      <c r="D71" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" t="s">
+        <v>293</v>
+      </c>
+      <c r="D72" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73" t="s">
+        <v>242</v>
+      </c>
+      <c r="D73" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74" t="s">
+        <v>294</v>
+      </c>
+      <c r="D74" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75" t="s">
+        <v>295</v>
+      </c>
+      <c r="D75" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76" t="s">
+        <v>296</v>
+      </c>
+      <c r="D76" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" t="s">
+        <v>297</v>
+      </c>
+      <c r="D77" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78" t="s">
+        <v>298</v>
+      </c>
+      <c r="D78" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" t="s">
+        <v>299</v>
+      </c>
+      <c r="D79" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>81</v>
+      </c>
+      <c r="C80" t="s">
+        <v>300</v>
+      </c>
+      <c r="D80" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>82</v>
+      </c>
+      <c r="C81" t="s">
+        <v>301</v>
+      </c>
+      <c r="D81" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" t="s">
+        <v>302</v>
+      </c>
+      <c r="D82" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83" t="s">
+        <v>303</v>
+      </c>
+      <c r="D83" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>85</v>
+      </c>
+      <c r="C84" t="s">
+        <v>304</v>
+      </c>
+      <c r="D84" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>86</v>
+      </c>
+      <c r="C85" t="s">
+        <v>305</v>
+      </c>
+      <c r="D85" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>87</v>
+      </c>
+      <c r="C86" t="s">
+        <v>306</v>
+      </c>
+      <c r="D86" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>88</v>
+      </c>
+      <c r="C87" t="s">
+        <v>307</v>
+      </c>
+      <c r="D87" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>89</v>
+      </c>
+      <c r="C88" t="s">
+        <v>308</v>
+      </c>
+      <c r="D88" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>90</v>
+      </c>
+      <c r="C89" t="s">
+        <v>309</v>
+      </c>
+      <c r="D89" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>91</v>
+      </c>
+      <c r="C90" t="s">
+        <v>310</v>
+      </c>
+      <c r="D90" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>92</v>
+      </c>
+      <c r="C91" t="s">
+        <v>297</v>
+      </c>
+      <c r="D91" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>93</v>
+      </c>
+      <c r="C92" t="s">
+        <v>311</v>
+      </c>
+      <c r="D92" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>94</v>
+      </c>
+      <c r="C93" t="s">
+        <v>312</v>
+      </c>
+      <c r="D93" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>95</v>
+      </c>
+      <c r="C94" t="s">
+        <v>313</v>
+      </c>
+      <c r="D94" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>96</v>
+      </c>
+      <c r="C95" t="s">
+        <v>263</v>
+      </c>
+      <c r="D95" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>97</v>
+      </c>
+      <c r="C96" t="s">
+        <v>314</v>
+      </c>
+      <c r="D96" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>98</v>
+      </c>
+      <c r="D97" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>99</v>
+      </c>
+      <c r="C98" t="s">
+        <v>315</v>
+      </c>
+      <c r="D98" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
         <v>100</v>
       </c>
-      <c r="D50" t="s">
+      <c r="C99" t="s">
+        <v>316</v>
+      </c>
+      <c r="D99" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>101</v>
+      </c>
+      <c r="C100" t="s">
+        <v>317</v>
+      </c>
+      <c r="D100" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>102</v>
+      </c>
+      <c r="C101" t="s">
+        <v>318</v>
+      </c>
+      <c r="D101" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>103</v>
+      </c>
+      <c r="C102" t="s">
+        <v>319</v>
+      </c>
+      <c r="D102" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>79</v>
+      </c>
+      <c r="C103" t="s">
+        <v>298</v>
+      </c>
+      <c r="D103" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>104</v>
+      </c>
+      <c r="C104" t="s">
+        <v>320</v>
+      </c>
+      <c r="D104" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>105</v>
+      </c>
+      <c r="C105" t="s">
+        <v>321</v>
+      </c>
+      <c r="D105" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>106</v>
+      </c>
+      <c r="C106" t="s">
+        <v>322</v>
+      </c>
+      <c r="D106" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>107</v>
+      </c>
+      <c r="C107" t="s">
+        <v>323</v>
+      </c>
+      <c r="D107" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>108</v>
+      </c>
+      <c r="C108" t="s">
+        <v>324</v>
+      </c>
+      <c r="D108" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>109</v>
+      </c>
+      <c r="C109" t="s">
+        <v>325</v>
+      </c>
+      <c r="D109" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>110</v>
+      </c>
+      <c r="C110" t="s">
+        <v>326</v>
+      </c>
+      <c r="D110" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>111</v>
+      </c>
+      <c r="C111" t="s">
+        <v>327</v>
+      </c>
+      <c r="D111" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>112</v>
+      </c>
+      <c r="D112" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>113</v>
+      </c>
+      <c r="C113" t="s">
+        <v>328</v>
+      </c>
+      <c r="D113" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>114</v>
+      </c>
+      <c r="C114" t="s">
+        <v>329</v>
+      </c>
+      <c r="D114" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>115</v>
+      </c>
+      <c r="C115" t="s">
+        <v>330</v>
+      </c>
+      <c r="D115" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>116</v>
+      </c>
+      <c r="C116" t="s">
+        <v>331</v>
+      </c>
+      <c r="D116" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>117</v>
+      </c>
+      <c r="C117" t="s">
+        <v>332</v>
+      </c>
+      <c r="D117" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>118</v>
+      </c>
+      <c r="C118" t="s">
+        <v>333</v>
+      </c>
+      <c r="D118" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>119</v>
+      </c>
+      <c r="C119" t="s">
+        <v>334</v>
+      </c>
+      <c r="D119" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>120</v>
+      </c>
+      <c r="D120" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>121</v>
+      </c>
+      <c r="C121" t="s">
+        <v>335</v>
+      </c>
+      <c r="D121" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>122</v>
+      </c>
+      <c r="C122" t="s">
+        <v>336</v>
+      </c>
+      <c r="D122" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>123</v>
+      </c>
+      <c r="C123" t="s">
+        <v>337</v>
+      </c>
+      <c r="D123" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>124</v>
+      </c>
+      <c r="C124" t="s">
+        <v>338</v>
+      </c>
+      <c r="D124" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
         <v>125</v>
+      </c>
+      <c r="C125" t="s">
+        <v>322</v>
+      </c>
+      <c r="D125" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>126</v>
+      </c>
+      <c r="C126" t="s">
+        <v>327</v>
+      </c>
+      <c r="D126" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>127</v>
+      </c>
+      <c r="C127" t="s">
+        <v>339</v>
+      </c>
+      <c r="D127" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>128</v>
+      </c>
+      <c r="C128" t="s">
+        <v>340</v>
+      </c>
+      <c r="D128" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>129</v>
+      </c>
+      <c r="C129" t="s">
+        <v>341</v>
+      </c>
+      <c r="D129" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>130</v>
+      </c>
+      <c r="C130" t="s">
+        <v>342</v>
+      </c>
+      <c r="D130" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>131</v>
+      </c>
+      <c r="C131" t="s">
+        <v>343</v>
+      </c>
+      <c r="D131" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>132</v>
+      </c>
+      <c r="C132" t="s">
+        <v>344</v>
+      </c>
+      <c r="D132" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>133</v>
+      </c>
+      <c r="C133" t="s">
+        <v>297</v>
+      </c>
+      <c r="D133" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>134</v>
+      </c>
+      <c r="C134" t="s">
+        <v>345</v>
+      </c>
+      <c r="D134" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>135</v>
+      </c>
+      <c r="C135" t="s">
+        <v>283</v>
+      </c>
+      <c r="D135" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>136</v>
+      </c>
+      <c r="C136" t="s">
+        <v>278</v>
+      </c>
+      <c r="D136" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>137</v>
+      </c>
+      <c r="C137" t="s">
+        <v>298</v>
+      </c>
+      <c r="D137" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>138</v>
+      </c>
+      <c r="C138" t="s">
+        <v>346</v>
+      </c>
+      <c r="D138" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>139</v>
+      </c>
+      <c r="C139" t="s">
+        <v>347</v>
+      </c>
+      <c r="D139" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>140</v>
+      </c>
+      <c r="C140" t="s">
+        <v>348</v>
+      </c>
+      <c r="D140" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>141</v>
+      </c>
+      <c r="D141" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>142</v>
+      </c>
+      <c r="C142" t="s">
+        <v>327</v>
+      </c>
+      <c r="D142" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>143</v>
+      </c>
+      <c r="C143" t="s">
+        <v>349</v>
+      </c>
+      <c r="D143" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>144</v>
+      </c>
+      <c r="C144" t="s">
+        <v>350</v>
+      </c>
+      <c r="D144" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>145</v>
+      </c>
+      <c r="D145" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>146</v>
+      </c>
+      <c r="C146" t="s">
+        <v>262</v>
+      </c>
+      <c r="D146" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>147</v>
+      </c>
+      <c r="C147" t="s">
+        <v>242</v>
+      </c>
+      <c r="D147" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>148</v>
+      </c>
+      <c r="C148" t="s">
+        <v>351</v>
+      </c>
+      <c r="D148" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>149</v>
+      </c>
+      <c r="C149" t="s">
+        <v>352</v>
+      </c>
+      <c r="D149" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>150</v>
+      </c>
+      <c r="C150" t="s">
+        <v>353</v>
+      </c>
+      <c r="D150" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>40</v>
+      </c>
+      <c r="C151" t="s">
+        <v>354</v>
+      </c>
+      <c r="D151" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>151</v>
+      </c>
+      <c r="C152" t="s">
+        <v>352</v>
+      </c>
+      <c r="D152" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>152</v>
+      </c>
+      <c r="C153" t="s">
+        <v>355</v>
+      </c>
+      <c r="D153" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>153</v>
+      </c>
+      <c r="D154" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>51</v>
+      </c>
+      <c r="C155" t="s">
+        <v>241</v>
+      </c>
+      <c r="D155" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>154</v>
+      </c>
+      <c r="C156" t="s">
+        <v>270</v>
+      </c>
+      <c r="D156" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>155</v>
+      </c>
+      <c r="C157" t="s">
+        <v>356</v>
+      </c>
+      <c r="D157" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>156</v>
+      </c>
+      <c r="C158" t="s">
+        <v>304</v>
+      </c>
+      <c r="D158" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>157</v>
+      </c>
+      <c r="C159" t="s">
+        <v>357</v>
+      </c>
+      <c r="D159" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>158</v>
+      </c>
+      <c r="D160" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>159</v>
+      </c>
+      <c r="C161" t="s">
+        <v>358</v>
+      </c>
+      <c r="D161" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>160</v>
+      </c>
+      <c r="C162" t="s">
+        <v>359</v>
+      </c>
+      <c r="D162" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>161</v>
+      </c>
+      <c r="C163" t="s">
+        <v>272</v>
+      </c>
+      <c r="D163" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>103</v>
+      </c>
+      <c r="C164" t="s">
+        <v>319</v>
+      </c>
+      <c r="D164" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>66</v>
+      </c>
+      <c r="D165" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>162</v>
+      </c>
+      <c r="C166" t="s">
+        <v>360</v>
+      </c>
+      <c r="D166" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>163</v>
+      </c>
+      <c r="C167" t="s">
+        <v>284</v>
+      </c>
+      <c r="D167" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>164</v>
+      </c>
+      <c r="C168" t="s">
+        <v>361</v>
+      </c>
+      <c r="D168" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>165</v>
+      </c>
+      <c r="C169" t="s">
+        <v>362</v>
+      </c>
+      <c r="D169" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>136</v>
+      </c>
+      <c r="C170" t="s">
+        <v>278</v>
+      </c>
+      <c r="D170" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>166</v>
+      </c>
+      <c r="C171" t="s">
+        <v>363</v>
+      </c>
+      <c r="D171" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>167</v>
+      </c>
+      <c r="C172" t="s">
+        <v>364</v>
+      </c>
+      <c r="D172" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>168</v>
+      </c>
+      <c r="C173" t="s">
+        <v>365</v>
+      </c>
+      <c r="D173" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>169</v>
+      </c>
+      <c r="C174" t="s">
+        <v>366</v>
+      </c>
+      <c r="D174" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>170</v>
+      </c>
+      <c r="C175" t="s">
+        <v>367</v>
+      </c>
+      <c r="D175" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>171</v>
+      </c>
+      <c r="C176" t="s">
+        <v>368</v>
+      </c>
+      <c r="D176" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>172</v>
+      </c>
+      <c r="C177" t="s">
+        <v>369</v>
+      </c>
+      <c r="D177" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>173</v>
+      </c>
+      <c r="C178" t="s">
+        <v>370</v>
+      </c>
+      <c r="D178" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>174</v>
+      </c>
+      <c r="C179" t="s">
+        <v>371</v>
+      </c>
+      <c r="D179" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>175</v>
+      </c>
+      <c r="C180" t="s">
+        <v>272</v>
+      </c>
+      <c r="D180" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>176</v>
+      </c>
+      <c r="D181" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" t="s">
+        <v>135</v>
+      </c>
+      <c r="C182" t="s">
+        <v>283</v>
+      </c>
+      <c r="D182" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183" t="s">
+        <v>177</v>
+      </c>
+      <c r="C183" t="s">
+        <v>372</v>
+      </c>
+      <c r="D183" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184" t="s">
+        <v>178</v>
+      </c>
+      <c r="C184" t="s">
+        <v>373</v>
+      </c>
+      <c r="D184" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185" t="s">
+        <v>179</v>
+      </c>
+      <c r="C185" t="s">
+        <v>374</v>
+      </c>
+      <c r="D185" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186" t="s">
+        <v>180</v>
+      </c>
+      <c r="C186" t="s">
+        <v>375</v>
+      </c>
+      <c r="D186" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187" t="s">
+        <v>181</v>
+      </c>
+      <c r="C187" t="s">
+        <v>376</v>
+      </c>
+      <c r="D187" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188" t="s">
+        <v>182</v>
+      </c>
+      <c r="C188" t="s">
+        <v>318</v>
+      </c>
+      <c r="D188" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189" t="s">
+        <v>183</v>
+      </c>
+      <c r="C189" t="s">
+        <v>318</v>
+      </c>
+      <c r="D189" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190" t="s">
+        <v>184</v>
+      </c>
+      <c r="C190" t="s">
+        <v>318</v>
+      </c>
+      <c r="D190" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191" t="s">
+        <v>185</v>
+      </c>
+      <c r="C191" t="s">
+        <v>377</v>
+      </c>
+      <c r="D191" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192" t="s">
+        <v>186</v>
+      </c>
+      <c r="C192" t="s">
+        <v>378</v>
+      </c>
+      <c r="D192" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193" t="s">
+        <v>137</v>
+      </c>
+      <c r="C193" t="s">
+        <v>298</v>
+      </c>
+      <c r="D193" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194" t="s">
+        <v>187</v>
+      </c>
+      <c r="C194" t="s">
+        <v>379</v>
+      </c>
+      <c r="D194" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195" t="s">
+        <v>188</v>
+      </c>
+      <c r="C195" t="s">
+        <v>380</v>
+      </c>
+      <c r="D195" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196" t="s">
+        <v>189</v>
+      </c>
+      <c r="C196" t="s">
+        <v>381</v>
+      </c>
+      <c r="D196" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197" t="s">
+        <v>74</v>
+      </c>
+      <c r="C197" t="s">
+        <v>242</v>
+      </c>
+      <c r="D197" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198" t="s">
+        <v>190</v>
+      </c>
+      <c r="D198" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199" t="s">
+        <v>191</v>
+      </c>
+      <c r="C199" t="s">
+        <v>298</v>
+      </c>
+      <c r="D199" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200" t="s">
+        <v>192</v>
+      </c>
+      <c r="C200" t="s">
+        <v>382</v>
+      </c>
+      <c r="D200" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201" t="s">
+        <v>193</v>
+      </c>
+      <c r="C201" t="s">
+        <v>383</v>
+      </c>
+      <c r="D201" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202" t="s">
+        <v>194</v>
+      </c>
+      <c r="C202" t="s">
+        <v>251</v>
+      </c>
+      <c r="D202" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203" t="s">
+        <v>195</v>
+      </c>
+      <c r="C203" t="s">
+        <v>384</v>
+      </c>
+      <c r="D203" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204" t="s">
+        <v>196</v>
+      </c>
+      <c r="C204" t="s">
+        <v>385</v>
+      </c>
+      <c r="D204" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205" t="s">
+        <v>197</v>
+      </c>
+      <c r="C205" t="s">
+        <v>386</v>
+      </c>
+      <c r="D205" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206" t="s">
+        <v>198</v>
+      </c>
+      <c r="C206" t="s">
+        <v>387</v>
+      </c>
+      <c r="D206" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207" t="s">
+        <v>199</v>
+      </c>
+      <c r="C207" t="s">
+        <v>388</v>
+      </c>
+      <c r="D207" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208" t="s">
+        <v>200</v>
+      </c>
+      <c r="C208" t="s">
+        <v>389</v>
+      </c>
+      <c r="D208" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209" t="s">
+        <v>201</v>
+      </c>
+      <c r="C209" t="s">
+        <v>390</v>
+      </c>
+      <c r="D209" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210" t="s">
+        <v>202</v>
+      </c>
+      <c r="C210" t="s">
+        <v>362</v>
+      </c>
+      <c r="D210" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211" t="s">
+        <v>203</v>
+      </c>
+      <c r="C211" t="s">
+        <v>244</v>
+      </c>
+      <c r="D211" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212" t="s">
+        <v>204</v>
+      </c>
+      <c r="D212" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213" t="s">
+        <v>205</v>
+      </c>
+      <c r="D213" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214" t="s">
+        <v>206</v>
+      </c>
+      <c r="D214" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215" t="s">
+        <v>207</v>
+      </c>
+      <c r="C215" t="s">
+        <v>391</v>
+      </c>
+      <c r="D215" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216" t="s">
+        <v>208</v>
+      </c>
+      <c r="D216" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217" t="s">
+        <v>209</v>
+      </c>
+      <c r="C217" t="s">
+        <v>259</v>
+      </c>
+      <c r="D217" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218" t="s">
+        <v>50</v>
+      </c>
+      <c r="C218" t="s">
+        <v>275</v>
+      </c>
+      <c r="D218" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219" t="s">
+        <v>53</v>
+      </c>
+      <c r="C219" t="s">
+        <v>276</v>
+      </c>
+      <c r="D219" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220" t="s">
+        <v>155</v>
+      </c>
+      <c r="C220" t="s">
+        <v>356</v>
+      </c>
+      <c r="D220" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221" t="s">
+        <v>210</v>
+      </c>
+      <c r="D221" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222" t="s">
+        <v>211</v>
+      </c>
+      <c r="C222" t="s">
+        <v>351</v>
+      </c>
+      <c r="D222" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223" t="s">
+        <v>212</v>
+      </c>
+      <c r="C223" t="s">
+        <v>392</v>
+      </c>
+      <c r="D223" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224" t="s">
+        <v>213</v>
+      </c>
+      <c r="D224" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225" t="s">
+        <v>214</v>
+      </c>
+      <c r="C225" t="s">
+        <v>351</v>
+      </c>
+      <c r="D225" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226" t="s">
+        <v>215</v>
+      </c>
+      <c r="C226" t="s">
+        <v>351</v>
+      </c>
+      <c r="D226" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227" t="s">
+        <v>216</v>
+      </c>
+      <c r="C227" t="s">
+        <v>272</v>
+      </c>
+      <c r="D227" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228" t="s">
+        <v>217</v>
+      </c>
+      <c r="C228" t="s">
+        <v>393</v>
+      </c>
+      <c r="D228" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229" t="s">
+        <v>218</v>
+      </c>
+      <c r="C229" t="s">
+        <v>311</v>
+      </c>
+      <c r="D229" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230" t="s">
+        <v>219</v>
+      </c>
+      <c r="C230" t="s">
+        <v>374</v>
+      </c>
+      <c r="D230" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231" t="s">
+        <v>220</v>
+      </c>
+      <c r="C231" t="s">
+        <v>366</v>
+      </c>
+      <c r="D231" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232" t="s">
+        <v>221</v>
+      </c>
+      <c r="D232" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233" t="s">
+        <v>180</v>
+      </c>
+      <c r="C233" t="s">
+        <v>375</v>
+      </c>
+      <c r="D233" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234" t="s">
+        <v>222</v>
+      </c>
+      <c r="D234" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235" t="s">
+        <v>223</v>
+      </c>
+      <c r="C235" t="s">
+        <v>272</v>
+      </c>
+      <c r="D235" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236" t="s">
+        <v>224</v>
+      </c>
+      <c r="D236" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237" t="s">
+        <v>225</v>
+      </c>
+      <c r="C237" t="s">
+        <v>325</v>
+      </c>
+      <c r="D237" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238" t="s">
+        <v>226</v>
+      </c>
+      <c r="C238" t="s">
+        <v>394</v>
+      </c>
+      <c r="D238" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239" t="s">
+        <v>227</v>
+      </c>
+      <c r="C239" t="s">
+        <v>395</v>
+      </c>
+      <c r="D239" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240" t="s">
+        <v>228</v>
+      </c>
+      <c r="D240" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241" t="s">
+        <v>229</v>
+      </c>
+      <c r="D241" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242" t="s">
+        <v>230</v>
+      </c>
+      <c r="D242" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243" t="s">
+        <v>231</v>
+      </c>
+      <c r="C243" t="s">
+        <v>339</v>
+      </c>
+      <c r="D243" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244" t="s">
+        <v>232</v>
+      </c>
+      <c r="D244" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245" t="s">
+        <v>233</v>
+      </c>
+      <c r="C245" t="s">
+        <v>396</v>
+      </c>
+      <c r="D245" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246" t="s">
+        <v>234</v>
+      </c>
+      <c r="D246" t="s">
+        <v>427</v>
       </c>
     </row>
   </sheetData>
